--- a/Quran/ACCO.xlsx
+++ b/Quran/ACCO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.Development\CSharp\Crypto\Quran\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{693A072B-80FB-412D-9C42-978FCEFAE8BD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D1CF203-36B7-4CD8-84DC-E1E0F1ADA931}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{A71582AA-EA8F-4794-9DE5-91B190DD9FAF}"/>
+    <workbookView xWindow="12600" yWindow="1230" windowWidth="23320" windowHeight="18440" activeTab="1" xr2:uid="{A71582AA-EA8F-4794-9DE5-91B190DD9FAF}"/>
   </bookViews>
   <sheets>
     <sheet name="ACCO" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="210">
   <si>
     <t>Diacritic</t>
   </si>
@@ -1103,7 +1103,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1212,45 +1212,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1282,6 +1243,49 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1629,10 +1633,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="60" t="s">
         <v>186</v>
       </c>
-      <c r="B1" s="44"/>
+      <c r="B1" s="61"/>
       <c r="C1" s="1"/>
       <c r="D1" s="2" t="s">
         <v>0</v>
@@ -1640,14 +1644,14 @@
       <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="47" t="s">
+      <c r="F1" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47" t="s">
+      <c r="G1" s="63"/>
+      <c r="H1" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="47"/>
+      <c r="I1" s="63"/>
       <c r="J1" s="3" t="s">
         <v>4</v>
       </c>
@@ -1657,49 +1661,49 @@
       <c r="L1" s="2">
         <v>1256</v>
       </c>
-      <c r="O1" s="45" t="s">
+      <c r="O1" s="53" t="s">
         <v>180</v>
       </c>
-      <c r="P1" s="45"/>
+      <c r="P1" s="53"/>
       <c r="Q1" s="28"/>
       <c r="R1" s="28"/>
-      <c r="S1" s="45" t="s">
+      <c r="S1" s="53" t="s">
         <v>181</v>
       </c>
-      <c r="T1" s="45"/>
+      <c r="T1" s="53"/>
       <c r="U1" s="28"/>
       <c r="V1" s="28"/>
-      <c r="W1" s="45" t="s">
+      <c r="W1" s="53" t="s">
         <v>182</v>
       </c>
-      <c r="X1" s="45"/>
+      <c r="X1" s="53"/>
       <c r="Y1" s="29"/>
       <c r="Z1" s="29"/>
-      <c r="AA1" s="40" t="s">
+      <c r="AA1" s="51" t="s">
         <v>183</v>
       </c>
-      <c r="AB1" s="41"/>
-      <c r="AC1" s="41"/>
-      <c r="AD1" s="41"/>
-      <c r="AE1" s="41"/>
-      <c r="AG1" s="50" t="s">
+      <c r="AB1" s="52"/>
+      <c r="AC1" s="52"/>
+      <c r="AD1" s="52"/>
+      <c r="AE1" s="52"/>
+      <c r="AG1" s="56" t="s">
         <v>202</v>
       </c>
-      <c r="AH1" s="51"/>
-      <c r="AI1" s="51"/>
-      <c r="AJ1" s="51"/>
-      <c r="AK1" s="52"/>
-      <c r="AN1" s="40" t="s">
+      <c r="AH1" s="57"/>
+      <c r="AI1" s="57"/>
+      <c r="AJ1" s="57"/>
+      <c r="AK1" s="58"/>
+      <c r="AN1" s="51" t="s">
         <v>183</v>
       </c>
-      <c r="AO1" s="41"/>
-      <c r="AP1" s="41"/>
-      <c r="AQ1" s="41"/>
-      <c r="AR1" s="41"/>
-      <c r="AU1" s="45" t="s">
+      <c r="AO1" s="52"/>
+      <c r="AP1" s="52"/>
+      <c r="AQ1" s="52"/>
+      <c r="AR1" s="52"/>
+      <c r="AU1" s="53" t="s">
         <v>182</v>
       </c>
-      <c r="AV1" s="45"/>
+      <c r="AV1" s="53"/>
     </row>
     <row r="2" spans="1:48" ht="46" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4" t="str">
@@ -1772,10 +1776,10 @@
         <f>AB2</f>
         <v>1</v>
       </c>
-      <c r="AG2" s="48" t="s">
+      <c r="AG2" s="54" t="s">
         <v>189</v>
       </c>
-      <c r="AH2" s="49"/>
+      <c r="AH2" s="55"/>
       <c r="AI2" s="7"/>
       <c r="AJ2" s="35"/>
       <c r="AK2" s="36" t="s">
@@ -1873,10 +1877,10 @@
         <f t="shared" ref="AE3:AE21" si="2">AB3</f>
         <v>2</v>
       </c>
-      <c r="AG3" s="48" t="s">
+      <c r="AG3" s="54" t="s">
         <v>190</v>
       </c>
-      <c r="AH3" s="49"/>
+      <c r="AH3" s="55"/>
       <c r="AI3" s="7"/>
       <c r="AJ3" s="35"/>
       <c r="AK3" s="36" t="s">
@@ -1975,10 +1979,10 @@
         <v>3</v>
       </c>
       <c r="AF4" s="26"/>
-      <c r="AG4" s="48" t="s">
+      <c r="AG4" s="54" t="s">
         <v>191</v>
       </c>
-      <c r="AH4" s="49"/>
+      <c r="AH4" s="55"/>
       <c r="AI4" s="37"/>
       <c r="AJ4" s="35"/>
       <c r="AK4" s="36" t="s">
@@ -2078,10 +2082,10 @@
         <v>4</v>
       </c>
       <c r="AF5" s="27"/>
-      <c r="AG5" s="48" t="s">
+      <c r="AG5" s="54" t="s">
         <v>192</v>
       </c>
-      <c r="AH5" s="49"/>
+      <c r="AH5" s="55"/>
       <c r="AI5" s="38"/>
       <c r="AJ5" s="35"/>
       <c r="AK5" s="36" t="s">
@@ -2178,10 +2182,10 @@
         <v>5</v>
       </c>
       <c r="AF6" s="27"/>
-      <c r="AG6" s="48" t="s">
+      <c r="AG6" s="54" t="s">
         <v>193</v>
       </c>
-      <c r="AH6" s="49"/>
+      <c r="AH6" s="55"/>
       <c r="AI6" s="38"/>
       <c r="AJ6" s="35"/>
       <c r="AK6" s="36" t="s">
@@ -2279,10 +2283,10 @@
         <v>6</v>
       </c>
       <c r="AF7" s="27"/>
-      <c r="AG7" s="48" t="s">
+      <c r="AG7" s="54" t="s">
         <v>194</v>
       </c>
-      <c r="AH7" s="49"/>
+      <c r="AH7" s="55"/>
       <c r="AI7" s="38"/>
       <c r="AJ7" s="35"/>
       <c r="AK7" s="36" t="s">
@@ -2380,10 +2384,10 @@
         <v>7</v>
       </c>
       <c r="AF8" s="27"/>
-      <c r="AG8" s="48" t="s">
+      <c r="AG8" s="54" t="s">
         <v>188</v>
       </c>
-      <c r="AH8" s="49"/>
+      <c r="AH8" s="55"/>
       <c r="AI8" s="38"/>
       <c r="AJ8" s="35"/>
       <c r="AK8" s="36" t="s">
@@ -2480,10 +2484,10 @@
         <v>8</v>
       </c>
       <c r="AF9" s="27"/>
-      <c r="AG9" s="48" t="s">
+      <c r="AG9" s="54" t="s">
         <v>187</v>
       </c>
-      <c r="AH9" s="49"/>
+      <c r="AH9" s="55"/>
       <c r="AI9" s="38"/>
       <c r="AJ9" s="35"/>
       <c r="AK9" s="36" t="s">
@@ -4407,10 +4411,10 @@
       <c r="O30" s="16"/>
       <c r="P30" s="33"/>
       <c r="Q30" s="16"/>
-      <c r="S30" s="46" t="s">
+      <c r="S30" s="62" t="s">
         <v>184</v>
       </c>
-      <c r="T30" s="46"/>
+      <c r="T30" s="62"/>
       <c r="W30" s="30" t="s">
         <v>6</v>
       </c>
@@ -4463,10 +4467,10 @@
       <c r="O31" s="16"/>
       <c r="P31" s="26"/>
       <c r="Q31" s="16"/>
-      <c r="S31" s="42" t="s">
+      <c r="S31" s="59" t="s">
         <v>185</v>
       </c>
-      <c r="T31" s="42"/>
+      <c r="T31" s="59"/>
       <c r="W31" s="16"/>
     </row>
     <row r="32" spans="1:48" ht="46" x14ac:dyDescent="0.35">
@@ -5089,6 +5093,15 @@
     <sortCondition ref="AU2:AU30"/>
   </sortState>
   <mergeCells count="20">
+    <mergeCell ref="AA1:AE1"/>
+    <mergeCell ref="S31:T31"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="S30:T30"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
     <mergeCell ref="AN1:AR1"/>
     <mergeCell ref="AU1:AV1"/>
     <mergeCell ref="AG7:AH7"/>
@@ -5100,15 +5113,6 @@
     <mergeCell ref="AG4:AH4"/>
     <mergeCell ref="AG5:AH5"/>
     <mergeCell ref="AG6:AH6"/>
-    <mergeCell ref="AA1:AE1"/>
-    <mergeCell ref="S31:T31"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="S30:T30"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" tooltip="ء" display="https://en.wikipedia.org/wiki/%D8%A1" xr:uid="{45956F5C-53C5-4458-B5FB-2B97B40A988F}"/>
@@ -5163,10 +5167,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2100732-47F3-4C35-A6B9-C6E40168B5C9}">
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5176,56 +5180,63 @@
     <col min="8" max="8" width="9.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="63" t="s">
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="65"/>
+      <c r="B1" s="50" t="s">
         <v>204</v>
       </c>
-      <c r="C1" s="63" t="s">
+      <c r="C1" s="50" t="s">
         <v>205</v>
       </c>
-      <c r="D1" s="63" t="s">
+      <c r="D1" s="50" t="s">
         <v>206</v>
       </c>
-      <c r="E1" s="63" t="s">
+      <c r="E1" s="50" t="s">
         <v>207</v>
       </c>
-      <c r="G1" s="63" t="s">
+      <c r="G1" s="50" t="s">
         <v>208</v>
       </c>
-      <c r="H1" s="63" t="s">
+      <c r="H1" s="50" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="46.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="53" t="s">
+      <c r="J1" s="64" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="46.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="55">
+      <c r="B2" s="42">
         <v>1</v>
       </c>
-      <c r="C2" s="56">
-        <v>0</v>
-      </c>
-      <c r="D2" s="57">
-        <v>0</v>
-      </c>
-      <c r="E2" s="58">
+      <c r="C2" s="43">
+        <v>0</v>
+      </c>
+      <c r="D2" s="44">
+        <v>0</v>
+      </c>
+      <c r="E2" s="45">
         <v>29</v>
       </c>
-      <c r="G2" s="56">
+      <c r="G2" s="43">
         <f>C2+1</f>
         <v>1</v>
       </c>
-      <c r="H2" s="57">
+      <c r="H2" s="44">
         <f>D2+1</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="46.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="53" t="s">
+      <c r="J2" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="46.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="59">
+      <c r="B3" s="46">
         <v>2</v>
       </c>
       <c r="C3" s="5">
@@ -5237,20 +5248,23 @@
       <c r="E3" s="39">
         <v>28</v>
       </c>
-      <c r="G3" s="56">
-        <f t="shared" ref="G3:G37" si="0">C3+1</f>
+      <c r="G3" s="43">
+        <f>C3+1</f>
         <v>2</v>
       </c>
-      <c r="H3" s="57">
-        <f t="shared" ref="H3:H37" si="1">D3+1</f>
+      <c r="H3" s="44">
+        <f>D3+1</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="46.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="53" t="s">
+      <c r="J3" s="44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="46.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="59">
+      <c r="B4" s="46">
         <v>3</v>
       </c>
       <c r="C4" s="5">
@@ -5262,20 +5276,23 @@
       <c r="E4" s="39">
         <v>28</v>
       </c>
-      <c r="G4" s="56">
-        <f t="shared" si="0"/>
+      <c r="G4" s="43">
+        <f>C4+1</f>
         <v>2</v>
       </c>
-      <c r="H4" s="57">
-        <f t="shared" si="1"/>
+      <c r="H4" s="44">
+        <f>D4+1</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="46.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="53" t="s">
+      <c r="J4" s="44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="46.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="59">
+      <c r="B5" s="46">
         <v>4</v>
       </c>
       <c r="C5" s="5">
@@ -5287,20 +5304,23 @@
       <c r="E5" s="39">
         <v>26</v>
       </c>
-      <c r="G5" s="56">
-        <f t="shared" si="0"/>
+      <c r="G5" s="43">
+        <f>C5+1</f>
         <v>7</v>
       </c>
-      <c r="H5" s="57">
-        <f t="shared" si="1"/>
+      <c r="H5" s="44">
+        <f>D5+1</f>
         <v>28</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="46.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="53" t="s">
+      <c r="J5" s="44">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="46.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="59">
+      <c r="B6" s="46">
         <v>5</v>
       </c>
       <c r="C6" s="5">
@@ -5312,20 +5332,23 @@
       <c r="E6" s="39">
         <v>28</v>
       </c>
-      <c r="G6" s="56">
-        <f t="shared" si="0"/>
+      <c r="G6" s="43">
+        <f>C6+1</f>
         <v>2</v>
       </c>
-      <c r="H6" s="57">
-        <f t="shared" si="1"/>
+      <c r="H6" s="44">
+        <f>D6+1</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="46.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="53" t="s">
+      <c r="J6" s="44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="46.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="59">
+      <c r="B7" s="46">
         <v>6</v>
       </c>
       <c r="C7" s="5">
@@ -5337,20 +5360,23 @@
       <c r="E7" s="39">
         <v>27</v>
       </c>
-      <c r="G7" s="56">
-        <f t="shared" si="0"/>
+      <c r="G7" s="43">
+        <f>C7+1</f>
         <v>11</v>
       </c>
-      <c r="H7" s="57">
-        <f t="shared" si="1"/>
+      <c r="H7" s="44">
+        <f>D7+1</f>
         <v>29</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="46.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="53" t="s">
+      <c r="J7" s="44">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="46.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="59">
+      <c r="B8" s="46">
         <v>7</v>
       </c>
       <c r="C8" s="5">
@@ -5362,20 +5388,23 @@
       <c r="E8" s="39">
         <v>28</v>
       </c>
-      <c r="G8" s="56">
-        <f t="shared" si="0"/>
+      <c r="G8" s="43">
+        <f>C8+1</f>
         <v>2</v>
       </c>
-      <c r="H8" s="57">
-        <f t="shared" si="1"/>
+      <c r="H8" s="44">
+        <f>D8+1</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="46.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="53" t="s">
+      <c r="J8" s="44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="46.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="59">
+      <c r="B9" s="46">
         <v>8</v>
       </c>
       <c r="C9" s="5">
@@ -5387,20 +5416,23 @@
       <c r="E9" s="39">
         <v>24</v>
       </c>
-      <c r="G9" s="56">
-        <f t="shared" si="0"/>
+      <c r="G9" s="43">
+        <f>C9+1</f>
         <v>3</v>
       </c>
-      <c r="H9" s="57">
-        <f t="shared" si="1"/>
+      <c r="H9" s="44">
+        <f>D9+1</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="46.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="53" t="s">
+      <c r="J9" s="44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="46.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="59">
+      <c r="B10" s="46">
         <v>9</v>
       </c>
       <c r="C10" s="5">
@@ -5412,20 +5444,23 @@
       <c r="E10" s="39">
         <v>15</v>
       </c>
-      <c r="G10" s="56">
-        <f t="shared" si="0"/>
+      <c r="G10" s="43">
+        <f>C10+1</f>
         <v>23</v>
       </c>
-      <c r="H10" s="57">
-        <f t="shared" si="1"/>
+      <c r="H10" s="44">
+        <f>D10+1</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="46.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="53" t="s">
+      <c r="J10" s="44">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="46.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="59">
+      <c r="B11" s="46">
         <v>10</v>
       </c>
       <c r="C11" s="5">
@@ -5437,20 +5472,23 @@
       <c r="E11" s="39">
         <v>15</v>
       </c>
-      <c r="G11" s="56">
-        <f t="shared" si="0"/>
+      <c r="G11" s="43">
+        <f>C11+1</f>
         <v>23</v>
       </c>
-      <c r="H11" s="57">
-        <f t="shared" si="1"/>
+      <c r="H11" s="44">
+        <f>D11+1</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="46.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="53" t="s">
+      <c r="J11" s="44">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="46.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="59">
+      <c r="B12" s="46">
         <v>11</v>
       </c>
       <c r="C12" s="5">
@@ -5462,20 +5500,23 @@
       <c r="E12" s="39">
         <v>19</v>
       </c>
-      <c r="G12" s="56">
-        <f t="shared" si="0"/>
+      <c r="G12" s="43">
+        <f>C12+1</f>
         <v>24</v>
       </c>
-      <c r="H12" s="57">
-        <f t="shared" si="1"/>
+      <c r="H12" s="44">
+        <f>D12+1</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="46.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="53" t="s">
+      <c r="J12" s="44">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="46.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="B13" s="59">
+      <c r="B13" s="46">
         <v>12</v>
       </c>
       <c r="C13" s="5">
@@ -5487,20 +5528,23 @@
       <c r="E13" s="39">
         <v>8</v>
       </c>
-      <c r="G13" s="56">
-        <f t="shared" si="0"/>
+      <c r="G13" s="43">
+        <f>C13+1</f>
         <v>4</v>
       </c>
-      <c r="H13" s="57">
-        <f t="shared" si="1"/>
+      <c r="H13" s="44">
+        <f>D13+1</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="46.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="53" t="s">
+      <c r="J13" s="44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="46.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="B14" s="59">
+      <c r="B14" s="46">
         <v>13</v>
       </c>
       <c r="C14" s="5">
@@ -5512,20 +5556,23 @@
       <c r="E14" s="39">
         <v>2</v>
       </c>
-      <c r="G14" s="56">
-        <f t="shared" si="0"/>
+      <c r="G14" s="43">
+        <f>C14+1</f>
         <v>9</v>
       </c>
-      <c r="H14" s="57">
-        <f t="shared" si="1"/>
+      <c r="H14" s="44">
+        <f>D14+1</f>
         <v>7</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="46.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="53" t="s">
+      <c r="J14" s="44">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="46.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="B15" s="59">
+      <c r="B15" s="46">
         <v>14</v>
       </c>
       <c r="C15" s="5">
@@ -5537,20 +5584,23 @@
       <c r="E15" s="39">
         <v>4</v>
       </c>
-      <c r="G15" s="56">
-        <f t="shared" si="0"/>
+      <c r="G15" s="43">
+        <f>C15+1</f>
         <v>25</v>
       </c>
-      <c r="H15" s="57">
-        <f t="shared" si="1"/>
+      <c r="H15" s="44">
+        <f>D15+1</f>
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="46.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="53" t="s">
+      <c r="J15" s="44">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="46.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="B16" s="59">
+      <c r="B16" s="46">
         <v>15</v>
       </c>
       <c r="C16" s="5">
@@ -5562,20 +5612,23 @@
       <c r="E16" s="39">
         <v>16</v>
       </c>
-      <c r="G16" s="56">
-        <f t="shared" si="0"/>
+      <c r="G16" s="43">
+        <f>C16+1</f>
         <v>5</v>
       </c>
-      <c r="H16" s="57">
-        <f t="shared" si="1"/>
+      <c r="H16" s="44">
+        <f>D16+1</f>
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" ht="46.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="53" t="s">
+      <c r="J16" s="44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="46.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="B17" s="59">
+      <c r="B17" s="46">
         <v>16</v>
       </c>
       <c r="C17" s="5">
@@ -5587,20 +5640,23 @@
       <c r="E17" s="39">
         <v>18</v>
       </c>
-      <c r="G17" s="56">
-        <f t="shared" si="0"/>
+      <c r="G17" s="43">
+        <f>C17+1</f>
         <v>26</v>
       </c>
-      <c r="H17" s="57">
-        <f t="shared" si="1"/>
+      <c r="H17" s="44">
+        <f>D17+1</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" ht="46.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="53" t="s">
+      <c r="J17" s="44">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="46.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="59">
+      <c r="B18" s="46">
         <v>17</v>
       </c>
       <c r="C18" s="5">
@@ -5612,20 +5668,23 @@
       <c r="E18" s="39">
         <v>20</v>
       </c>
-      <c r="G18" s="56">
-        <f t="shared" si="0"/>
+      <c r="G18" s="43">
+        <f>C18+1</f>
         <v>21</v>
       </c>
-      <c r="H18" s="57">
-        <f t="shared" si="1"/>
+      <c r="H18" s="44">
+        <f>D18+1</f>
         <v>11</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" ht="46.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="53" t="s">
+      <c r="J18" s="44">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="46.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="B19" s="59">
+      <c r="B19" s="46">
         <v>18</v>
       </c>
       <c r="C19" s="5">
@@ -5637,20 +5696,23 @@
       <c r="E19" s="39">
         <v>13</v>
       </c>
-      <c r="G19" s="56">
-        <f t="shared" si="0"/>
+      <c r="G19" s="43">
+        <f>C19+1</f>
         <v>8</v>
       </c>
-      <c r="H19" s="57">
-        <f t="shared" si="1"/>
+      <c r="H19" s="44">
+        <f>D19+1</f>
         <v>12</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" ht="46.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="53" t="s">
+      <c r="J19" s="44">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="46.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="B20" s="59">
+      <c r="B20" s="46">
         <v>19</v>
       </c>
       <c r="C20" s="5">
@@ -5662,20 +5724,23 @@
       <c r="E20" s="39">
         <v>12</v>
       </c>
-      <c r="G20" s="56">
-        <f t="shared" si="0"/>
+      <c r="G20" s="43">
+        <f>C20+1</f>
         <v>16</v>
       </c>
-      <c r="H20" s="57">
-        <f t="shared" si="1"/>
+      <c r="H20" s="44">
+        <f>D20+1</f>
         <v>13</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" ht="46.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="53" t="s">
+      <c r="J20" s="44">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="46.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="B21" s="59">
+      <c r="B21" s="46">
         <v>20</v>
       </c>
       <c r="C21" s="5">
@@ -5687,20 +5752,23 @@
       <c r="E21" s="39">
         <v>9</v>
       </c>
-      <c r="G21" s="56">
-        <f t="shared" si="0"/>
+      <c r="G21" s="43">
+        <f>C21+1</f>
         <v>22</v>
       </c>
-      <c r="H21" s="57">
-        <f t="shared" si="1"/>
+      <c r="H21" s="44">
+        <f>D21+1</f>
         <v>14</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" ht="46.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="53" t="s">
+      <c r="J21" s="44">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="46.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="B22" s="59">
+      <c r="B22" s="46">
         <v>21</v>
       </c>
       <c r="C22" s="5">
@@ -5712,20 +5780,23 @@
       <c r="E22" s="39">
         <v>11</v>
       </c>
-      <c r="G22" s="56">
-        <f t="shared" si="0"/>
+      <c r="G22" s="43">
+        <f>C22+1</f>
         <v>19</v>
       </c>
-      <c r="H22" s="57">
-        <f t="shared" si="1"/>
+      <c r="H22" s="44">
+        <f>D22+1</f>
         <v>15</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" ht="46.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="53" t="s">
+      <c r="J22" s="44">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="46.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="B23" s="59">
+      <c r="B23" s="46">
         <v>22</v>
       </c>
       <c r="C23" s="5">
@@ -5737,20 +5808,23 @@
       <c r="E23" s="39">
         <v>10</v>
       </c>
-      <c r="G23" s="56">
-        <f t="shared" si="0"/>
+      <c r="G23" s="43">
+        <f>C23+1</f>
         <v>27</v>
       </c>
-      <c r="H23" s="57">
-        <f t="shared" si="1"/>
+      <c r="H23" s="44">
+        <f>D23+1</f>
         <v>16</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" ht="46.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="53" t="s">
+      <c r="J23" s="44">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="46.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="B24" s="59">
+      <c r="B24" s="46">
         <v>23</v>
       </c>
       <c r="C24" s="5">
@@ -5762,20 +5836,23 @@
       <c r="E24" s="39">
         <v>14</v>
       </c>
-      <c r="G24" s="56">
-        <f t="shared" si="0"/>
+      <c r="G24" s="43">
+        <f>C24+1</f>
         <v>10</v>
       </c>
-      <c r="H24" s="57">
-        <f t="shared" si="1"/>
+      <c r="H24" s="44">
+        <f>D24+1</f>
         <v>17</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" ht="46.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="53" t="s">
+      <c r="J24" s="44">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="46.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="B25" s="59">
+      <c r="B25" s="46">
         <v>24</v>
       </c>
       <c r="C25" s="5">
@@ -5787,20 +5864,23 @@
       <c r="E25" s="39">
         <v>17</v>
       </c>
-      <c r="G25" s="56">
-        <f t="shared" si="0"/>
+      <c r="G25" s="43">
+        <f>C25+1</f>
         <v>28</v>
       </c>
-      <c r="H25" s="57">
-        <f t="shared" si="1"/>
+      <c r="H25" s="44">
+        <f>D25+1</f>
         <v>18</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" ht="46.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="53" t="s">
+      <c r="J25" s="44">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="46.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="B26" s="59">
+      <c r="B26" s="46">
         <v>25</v>
       </c>
       <c r="C26" s="5">
@@ -5812,20 +5892,23 @@
       <c r="E26" s="39">
         <v>1</v>
       </c>
-      <c r="G26" s="56">
-        <f t="shared" si="0"/>
+      <c r="G26" s="43">
+        <f>C26+1</f>
         <v>17</v>
       </c>
-      <c r="H26" s="57">
-        <f t="shared" si="1"/>
+      <c r="H26" s="44">
+        <f>D26+1</f>
         <v>19</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" ht="46.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="53" t="s">
+      <c r="J26" s="44">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="46.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="40" t="s">
         <v>98</v>
       </c>
-      <c r="B27" s="59">
+      <c r="B27" s="46">
         <v>26</v>
       </c>
       <c r="C27" s="5">
@@ -5837,20 +5920,23 @@
       <c r="E27" s="39">
         <v>5</v>
       </c>
-      <c r="G27" s="56">
-        <f t="shared" si="0"/>
+      <c r="G27" s="43">
+        <f>C27+1</f>
         <v>29</v>
       </c>
-      <c r="H27" s="57">
-        <f t="shared" si="1"/>
+      <c r="H27" s="44">
+        <f>D27+1</f>
         <v>20</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" ht="46.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="53" t="s">
+      <c r="J27" s="44">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="46.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="B28" s="59">
+      <c r="B28" s="46">
         <v>27</v>
       </c>
       <c r="C28" s="5">
@@ -5862,20 +5948,23 @@
       <c r="E28" s="39">
         <v>23</v>
       </c>
-      <c r="G28" s="56">
-        <f t="shared" si="0"/>
+      <c r="G28" s="43">
+        <f>C28+1</f>
         <v>18</v>
       </c>
-      <c r="H28" s="57">
-        <f t="shared" si="1"/>
+      <c r="H28" s="44">
+        <f>D28+1</f>
         <v>21</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" ht="46.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="53" t="s">
+      <c r="J28" s="44">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="46.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="B29" s="59">
+      <c r="B29" s="46">
         <v>28</v>
       </c>
       <c r="C29" s="5">
@@ -5887,20 +5976,23 @@
       <c r="E29" s="39">
         <v>6</v>
       </c>
-      <c r="G29" s="56">
-        <f t="shared" si="0"/>
+      <c r="G29" s="43">
+        <f>C29+1</f>
         <v>20</v>
       </c>
-      <c r="H29" s="57">
-        <f t="shared" si="1"/>
+      <c r="H29" s="44">
+        <f>D29+1</f>
         <v>22</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" ht="46.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="53" t="s">
+      <c r="J29" s="44">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="46.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="B30" s="59">
+      <c r="B30" s="46">
         <v>29</v>
       </c>
       <c r="C30" s="5">
@@ -5912,20 +6004,23 @@
       <c r="E30" s="39">
         <v>7</v>
       </c>
-      <c r="G30" s="56">
-        <f t="shared" si="0"/>
+      <c r="G30" s="43">
+        <f>C30+1</f>
         <v>12</v>
       </c>
-      <c r="H30" s="57">
-        <f t="shared" si="1"/>
+      <c r="H30" s="44">
+        <f>D30+1</f>
         <v>23</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" ht="46.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="53" t="s">
+      <c r="J30" s="44">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="46.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="40" t="s">
         <v>115</v>
       </c>
-      <c r="B31" s="59">
+      <c r="B31" s="46">
         <v>30</v>
       </c>
       <c r="C31" s="5">
@@ -5937,20 +6032,23 @@
       <c r="E31" s="39">
         <v>21</v>
       </c>
-      <c r="G31" s="56">
-        <f t="shared" si="0"/>
+      <c r="G31" s="43">
+        <f>C31+1</f>
         <v>13</v>
       </c>
-      <c r="H31" s="57">
-        <f t="shared" si="1"/>
+      <c r="H31" s="44">
+        <f>D31+1</f>
         <v>24</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" ht="46.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="53" t="s">
+      <c r="J31" s="44">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="46.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="B32" s="59">
+      <c r="B32" s="46">
         <v>31</v>
       </c>
       <c r="C32" s="5">
@@ -5962,20 +6060,23 @@
       <c r="E32" s="39">
         <v>25</v>
       </c>
-      <c r="G32" s="56">
-        <f t="shared" si="0"/>
+      <c r="G32" s="43">
+        <f>C32+1</f>
         <v>14</v>
       </c>
-      <c r="H32" s="57">
-        <f t="shared" si="1"/>
+      <c r="H32" s="44">
+        <f>D32+1</f>
         <v>25</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" ht="46.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="53" t="s">
+      <c r="J32" s="44">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="46.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="40" t="s">
         <v>121</v>
       </c>
-      <c r="B33" s="59">
+      <c r="B33" s="46">
         <v>32</v>
       </c>
       <c r="C33" s="5">
@@ -5987,20 +6088,23 @@
       <c r="E33" s="39">
         <v>22</v>
       </c>
-      <c r="G33" s="56">
-        <f t="shared" si="0"/>
+      <c r="G33" s="43">
+        <f>C33+1</f>
         <v>15</v>
       </c>
-      <c r="H33" s="57">
-        <f t="shared" si="1"/>
+      <c r="H33" s="44">
+        <f>D33+1</f>
         <v>26</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" ht="46.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="53" t="s">
+      <c r="J33" s="44">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="46.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="B34" s="59">
+      <c r="B34" s="46">
         <v>33</v>
       </c>
       <c r="C34" s="5">
@@ -6012,20 +6116,23 @@
       <c r="E34" s="39">
         <v>3</v>
       </c>
-      <c r="G34" s="56">
-        <f t="shared" si="0"/>
+      <c r="G34" s="43">
+        <f>C34+1</f>
         <v>6</v>
       </c>
-      <c r="H34" s="57">
-        <f t="shared" si="1"/>
+      <c r="H34" s="44">
+        <f>D34+1</f>
         <v>27</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" ht="46.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="53" t="s">
+      <c r="J34" s="44">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="46.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="40" t="s">
         <v>128</v>
       </c>
-      <c r="B35" s="59">
+      <c r="B35" s="46">
         <v>34</v>
       </c>
       <c r="C35" s="5">
@@ -6037,20 +6144,23 @@
       <c r="E35" s="39">
         <v>26</v>
       </c>
-      <c r="G35" s="56">
-        <f t="shared" si="0"/>
+      <c r="G35" s="43">
+        <f>C35+1</f>
         <v>7</v>
       </c>
-      <c r="H35" s="57">
-        <f t="shared" si="1"/>
+      <c r="H35" s="44">
+        <f>D35+1</f>
         <v>28</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" ht="46.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="53" t="s">
+      <c r="J35" s="44">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="46.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="40" t="s">
         <v>131</v>
       </c>
-      <c r="B36" s="59">
+      <c r="B36" s="46">
         <v>35</v>
       </c>
       <c r="C36" s="5">
@@ -6062,20 +6172,23 @@
       <c r="E36" s="39">
         <v>27</v>
       </c>
-      <c r="G36" s="56">
-        <f t="shared" si="0"/>
+      <c r="G36" s="43">
+        <f>C36+1</f>
         <v>11</v>
       </c>
-      <c r="H36" s="57">
-        <f t="shared" si="1"/>
+      <c r="H36" s="44">
+        <f>D36+1</f>
         <v>29</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" ht="46" x14ac:dyDescent="0.35">
-      <c r="A37" s="53" t="s">
+      <c r="J36" s="44">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="46.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="40" t="s">
         <v>134</v>
       </c>
-      <c r="B37" s="59">
+      <c r="B37" s="46">
         <v>36</v>
       </c>
       <c r="C37" s="5">
@@ -6087,20 +6200,23 @@
       <c r="E37" s="39">
         <v>27</v>
       </c>
-      <c r="G37" s="56">
-        <f t="shared" si="0"/>
+      <c r="G37" s="43">
+        <f>C37+1</f>
         <v>11</v>
       </c>
-      <c r="H37" s="57">
-        <f t="shared" si="1"/>
+      <c r="H37" s="44">
+        <f>D37+1</f>
         <v>29</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" ht="46" x14ac:dyDescent="0.35">
-      <c r="A38" s="54" t="s">
+      <c r="J37" s="44">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="46.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="41" t="s">
         <v>139</v>
       </c>
-      <c r="B38" s="59">
+      <c r="B38" s="46">
         <v>37</v>
       </c>
       <c r="C38" s="5">
@@ -6118,12 +6234,15 @@
       <c r="H38" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" ht="46" x14ac:dyDescent="0.35">
-      <c r="A39" s="54" t="s">
+      <c r="J38" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="46.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="41" t="s">
         <v>145</v>
       </c>
-      <c r="B39" s="59">
+      <c r="B39" s="46">
         <v>38</v>
       </c>
       <c r="C39" s="5">
@@ -6141,12 +6260,15 @@
       <c r="H39" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" ht="46" x14ac:dyDescent="0.35">
-      <c r="A40" s="54" t="s">
+      <c r="J39" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="46.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="41" t="s">
         <v>150</v>
       </c>
-      <c r="B40" s="59">
+      <c r="B40" s="46">
         <v>39</v>
       </c>
       <c r="C40" s="5">
@@ -6164,12 +6286,15 @@
       <c r="H40" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" ht="46" x14ac:dyDescent="0.35">
-      <c r="A41" s="54" t="s">
+      <c r="J40" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="46.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="41" t="s">
         <v>155</v>
       </c>
-      <c r="B41" s="59">
+      <c r="B41" s="46">
         <v>40</v>
       </c>
       <c r="C41" s="5">
@@ -6187,12 +6312,15 @@
       <c r="H41" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" ht="46" x14ac:dyDescent="0.35">
-      <c r="A42" s="54" t="s">
+      <c r="J41" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="46.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="41" t="s">
         <v>160</v>
       </c>
-      <c r="B42" s="59">
+      <c r="B42" s="46">
         <v>41</v>
       </c>
       <c r="C42" s="5">
@@ -6210,12 +6338,15 @@
       <c r="H42" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" ht="46" x14ac:dyDescent="0.35">
-      <c r="A43" s="54" t="s">
+      <c r="J42" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="46.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="41" t="s">
         <v>165</v>
       </c>
-      <c r="B43" s="59">
+      <c r="B43" s="46">
         <v>42</v>
       </c>
       <c r="C43" s="5">
@@ -6233,12 +6364,15 @@
       <c r="H43" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" ht="46" x14ac:dyDescent="0.35">
-      <c r="A44" s="54" t="s">
+      <c r="J43" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="46.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="41" t="s">
         <v>170</v>
       </c>
-      <c r="B44" s="59">
+      <c r="B44" s="46">
         <v>43</v>
       </c>
       <c r="C44" s="5">
@@ -6256,27 +6390,33 @@
       <c r="H44" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" ht="46.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="54" t="s">
+      <c r="J44" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="46.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="41" t="s">
         <v>175</v>
       </c>
-      <c r="B45" s="60">
+      <c r="B45" s="47">
         <v>44</v>
       </c>
-      <c r="C45" s="61">
-        <v>0</v>
-      </c>
-      <c r="D45" s="61">
-        <v>0</v>
-      </c>
-      <c r="E45" s="62">
-        <v>0</v>
-      </c>
-      <c r="G45" s="61">
-        <v>0</v>
-      </c>
-      <c r="H45" s="61">
+      <c r="C45" s="48">
+        <v>0</v>
+      </c>
+      <c r="D45" s="48">
+        <v>0</v>
+      </c>
+      <c r="E45" s="49">
+        <v>0</v>
+      </c>
+      <c r="G45" s="48">
+        <v>0</v>
+      </c>
+      <c r="H45" s="48">
+        <v>0</v>
+      </c>
+      <c r="J45" s="44">
         <v>0</v>
       </c>
     </row>
